--- a/8月制作内容/编剧文档/【编剧】卷首剧情+0801.xlsx
+++ b/8月制作内容/编剧文档/【编剧】卷首剧情+0801.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="24180" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开场分镜版一" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="正文剧本" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>开场表现方式part1：</t>
   </si>
@@ -247,13 +247,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>五岁的你、沈氏、王氏、</t>
     </r>
     <r>
@@ -262,7 +255,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>年轻版钱万三（你的父亲，新增）</t>
     </r>
@@ -270,9 +262,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>、乳娘、</t>
     </r>
@@ -282,7 +272,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>大伯母（新增）、</t>
     </r>
@@ -291,7 +280,6 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>奴仆、嬷嬷等NPC数人</t>
     </r>
@@ -698,76 +686,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -776,38 +694,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,7 +716,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,6 +803,30 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -863,7 +851,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,145 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,19 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,17 +1045,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,9 +1071,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,19 +1083,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,6 +1099,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1149,8 +1137,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,10 +1150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,133 +1162,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1510,14 +1498,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1534,7 +1522,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="17726025"/>
+          <a:off x="4486275" y="16802100"/>
           <a:ext cx="9182100" cy="5181600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1548,14 +1536,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1572,7 +1560,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000750" y="35823525"/>
+          <a:off x="6000750" y="34804350"/>
           <a:ext cx="9191625" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1960,11 +1948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="E5:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2265,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="E3:J46"/>
   <sheetViews>
@@ -2531,12 +2519,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B3:Y137"/>
+  <dimension ref="B3:Y132"/>
   <sheetViews>
-    <sheetView topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2818,7 +2806,7 @@
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>92</v>
@@ -2829,7 +2817,7 @@
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>92</v>
@@ -2840,7 +2828,7 @@
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>113</v>
@@ -2851,7 +2839,7 @@
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>92</v>
@@ -2862,13 +2850,24 @@
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H49" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" s="2">
+        <v>17</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="6:8">
@@ -2876,583 +2875,566 @@
         <v>18</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="2">
         <v>19</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>121</v>
+      <c r="G52" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="2">
         <v>20</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>122</v>
+      <c r="H53" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="2">
         <v>21</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H54" s="16" t="s">
-        <v>123</v>
+      <c r="H54" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="2">
         <v>22</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="2">
+        <v>23</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H55" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8">
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
+      <c r="H56" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="2">
-        <v>23</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="6:8">
+        <v>24</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
       <c r="F58" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="6:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8">
+      <c r="D59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F59" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="2">
+        <v>27</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="2">
+        <v>28</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="2">
+        <v>29</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8">
+      <c r="E63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="2">
+        <v>30</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8">
+      <c r="D64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="2">
+        <v>31</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="2">
+        <v>32</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" s="2">
+        <v>33</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="2">
-        <v>26</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" s="2">
+        <v>34</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" s="2">
+        <v>35</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8">
-      <c r="D62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" s="2">
-        <v>27</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="6:8">
-      <c r="F63" s="2">
-        <v>28</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="6:8">
-      <c r="F64" s="2">
-        <v>29</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" t="s">
-        <v>136</v>
-      </c>
-      <c r="F66" s="2">
-        <v>31</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="5:8">
-      <c r="E67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="2">
-        <v>32</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8">
-      <c r="D68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" s="2">
-        <v>33</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H68" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="4:8">
       <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="2">
+        <v>36</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8">
+      <c r="D70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="2">
-        <v>34</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="6:8">
+      <c r="E70" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F70" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="6:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8">
+      <c r="E71" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F71" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="6:8">
       <c r="F72" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8">
-      <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>155</v>
       </c>
       <c r="F73" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8">
-      <c r="D74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="H73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
       <c r="F74" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="5:8">
       <c r="E75" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F75" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="6:8">
       <c r="F76" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="H76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8">
       <c r="F77" s="2">
-        <v>42</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="6:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8">
+      <c r="D78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F78" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="5:8">
-      <c r="E79" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8">
       <c r="F79" s="2">
-        <v>44</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" t="s">
-        <v>159</v>
+        <v>46</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="6:8">
       <c r="F80" s="2">
-        <v>45</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="6:8">
+        <v>47</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
       <c r="F81" s="2">
-        <v>46</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8">
-      <c r="D82" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8">
       <c r="F82" s="2">
-        <v>47</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82" t="s">
-        <v>163</v>
+        <v>49</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="6:8">
       <c r="F83" s="2">
-        <v>48</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>164</v>
+        <v>50</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="F84" s="2">
+        <v>51</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="6:8">
       <c r="F85" s="2">
-        <v>49</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>165</v>
+        <v>52</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="6:8">
       <c r="F86" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="6:8">
       <c r="F87" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="6:8">
       <c r="F88" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="6:8">
       <c r="F89" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="6:8">
       <c r="F90" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="6:8">
       <c r="F91" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="6:8">
       <c r="F92" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="6:8">
-      <c r="F93" s="2">
-        <v>57</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="6:8">
-      <c r="F94" s="2">
-        <v>58</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="6:8">
-      <c r="F95" s="2">
-        <v>59</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H95" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="6:8">
-      <c r="F96" s="2">
-        <v>60</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="6:8">
-      <c r="F97" s="2">
-        <v>61</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="7:8">
-      <c r="G98" s="1"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" spans="7:8">
-      <c r="G99" s="1"/>
-      <c r="H99" s="16"/>
-    </row>
-    <row r="100" spans="7:8">
-      <c r="G100" s="1"/>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="102" spans="7:7">
-      <c r="G102" s="1" t="s">
+    <row r="93" spans="7:8">
+      <c r="G93" s="1"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94" s="1"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95" s="1"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="8:8">
-      <c r="H114" s="15"/>
-    </row>
-    <row r="116" spans="8:8">
-      <c r="H116" s="22"/>
+    <row r="109" spans="8:8">
+      <c r="H109" s="15"/>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="H111" s="22"/>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="H113" s="15"/>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="H115" s="15"/>
     </row>
     <row r="118" spans="8:8">
       <c r="H118" s="15"/>
     </row>
-    <row r="120" spans="8:8">
-      <c r="H120" s="15"/>
-    </row>
-    <row r="123" spans="8:8">
-      <c r="H123" s="15"/>
-    </row>
-    <row r="130" spans="8:8">
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="8:8">
-      <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="8:8">
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="8:8">
-      <c r="H133" s="2"/>
-    </row>
-    <row r="137" spans="6:6">
-      <c r="F137"/>
+    <row r="125" spans="8:8">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="8:8">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="8:8">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3462,7 +3444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="E8"/>
   <sheetViews>
